--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -22,21 +22,27 @@
     <t>地图编号</t>
   </si>
   <si>
-    <t>关卡配置</t>
+    <t>关卡配置(对应monsterwaveconfig的code)</t>
   </si>
   <si>
     <t>每波次的时间间隔</t>
   </si>
   <si>
+    <t>获胜奖励</t>
+  </si>
+  <si>
     <t>MapId</t>
   </si>
   <si>
-    <t>WaveCode</t>
+    <t>MonsterWaveCode</t>
   </si>
   <si>
     <t>MonsterWaveInterval</t>
   </si>
   <si>
+    <t>Reward</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -46,16 +52,28 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>#单人关卡</t>
+  </si>
+  <si>
+    <t>Wave2</t>
+  </si>
+  <si>
+    <t>5000,6000</t>
+  </si>
+  <si>
+    <t>1,100</t>
+  </si>
+  <si>
+    <t>5000,6000,7000,8000,9000,10000,11000,12000,13000</t>
+  </si>
+  <si>
+    <t>#对战关卡</t>
+  </si>
+  <si>
     <t>Wave1</t>
   </si>
   <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>Wave2</t>
-  </si>
-  <si>
-    <t>5000,6000,7000,8000,9000,10000,11000,12000,13000</t>
+    <t>5000,5000,5000,5000,5000,5000</t>
   </si>
 </sst>
 </file>
@@ -1029,18 +1047,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H15"/>
+  <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
+    <col min="5" max="5" width="46.375" customWidth="1"/>
     <col min="6" max="6" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6">
+    <row r="2" spans="7:7">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="3:7">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1050,68 +1072,214 @@
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="3:6">
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="3:6">
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
       <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6">
-      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7">
         <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7">
-        <v>2</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="8:8">
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12">
+        <v>1001</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="6:7">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="6:7">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="6:7">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="6:7">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -28,9 +28,24 @@
     <t>每波次的时间间隔</t>
   </si>
   <si>
+    <t>初始金币</t>
+  </si>
+  <si>
     <t>获胜奖励</t>
   </si>
   <si>
+    <t>比例系数(双人专用，赢输)(100的倍数)</t>
+  </si>
+  <si>
+    <t>关卡描述</t>
+  </si>
+  <si>
+    <t>关卡名称</t>
+  </si>
+  <si>
+    <t>怪种类Id</t>
+  </si>
+  <si>
     <t>MapId</t>
   </si>
   <si>
@@ -40,9 +55,24 @@
     <t>MonsterWaveInterval</t>
   </si>
   <si>
+    <t>InitGold</t>
+  </si>
+  <si>
     <t>Reward</t>
   </si>
   <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>LevelDis</t>
+  </si>
+  <si>
+    <t>LevelName</t>
+  </si>
+  <si>
+    <t>MonstersId</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -58,13 +88,40 @@
     <t>Wave2</t>
   </si>
   <si>
-    <t>5000,6000</t>
+    <t>15000,15000,15000,15000,15000,15000,15000</t>
   </si>
   <si>
     <t>1,100</t>
   </si>
   <si>
-    <t>5000,6000,7000,8000,9000,10000,11000,12000,13000</t>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>第一关</t>
+  </si>
+  <si>
+    <t>6001,6002,6003</t>
+  </si>
+  <si>
+    <t>5000,15000,9000,15000,9000,15000,9000,15000,9000,15000,9000,15000,9000</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>第二关</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>第三关</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>第四关</t>
   </si>
   <si>
     <t>#对战关卡</t>
@@ -74,6 +131,12 @@
   </si>
   <si>
     <t>5000,5000,5000,5000,5000,5000</t>
+  </si>
+  <si>
+    <t>200,50</t>
+  </si>
+  <si>
+    <t>eee</t>
   </si>
 </sst>
 </file>
@@ -86,7 +149,14 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,34 +629,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,106 +665,118 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1047,22 +1126,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H30"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="46.375" customWidth="1"/>
-    <col min="6" max="6" width="52.875" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="10" max="10" width="27.25" customWidth="1"/>
+    <col min="11" max="11" width="21.125" customWidth="1"/>
+    <col min="12" max="12" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="7:7">
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:12">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1075,140 +1160,244 @@
       <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12">
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12">
       <c r="C5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="3:7">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="3:12">
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12">
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12">
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12">
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="3:7">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="3:10">
       <c r="C12">
         <v>1001</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="G12">
+        <v>500</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="6:7">
       <c r="F13" s="1"/>
@@ -1221,7 +1410,7 @@
     <row r="15" spans="6:8">
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="6:7">
       <c r="F16" s="1"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -91,10 +91,10 @@
     <t>15000,15000,15000,15000,15000,15000,15000</t>
   </si>
   <si>
-    <t>1,100</t>
-  </si>
-  <si>
-    <t>aaa</t>
+    <t>1,100;1,200;1,300</t>
+  </si>
+  <si>
+    <t>这是一张静谧森林地图</t>
   </si>
   <si>
     <t>第一关</t>
@@ -103,27 +103,93 @@
     <t>6001,6002,6003</t>
   </si>
   <si>
-    <t>5000,15000,9000,15000,9000,15000,9000,15000,9000,15000,9000,15000,9000</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
     <t>第二关</t>
   </si>
   <si>
-    <t>ccc</t>
-  </si>
-  <si>
     <t>第三关</t>
   </si>
   <si>
-    <t>ddd</t>
-  </si>
-  <si>
     <t>第四关</t>
   </si>
   <si>
+    <t>第五关</t>
+  </si>
+  <si>
+    <t>第六关</t>
+  </si>
+  <si>
+    <t>第七关</t>
+  </si>
+  <si>
+    <t>第八关</t>
+  </si>
+  <si>
+    <t>第九关</t>
+  </si>
+  <si>
+    <t>第十关</t>
+  </si>
+  <si>
+    <t>第十一关</t>
+  </si>
+  <si>
+    <t>第十二关</t>
+  </si>
+  <si>
+    <t>第十三关</t>
+  </si>
+  <si>
+    <t>第十四关</t>
+  </si>
+  <si>
+    <t>第十五关</t>
+  </si>
+  <si>
+    <t>第十六关</t>
+  </si>
+  <si>
+    <t>第十七关</t>
+  </si>
+  <si>
+    <t>第十八关</t>
+  </si>
+  <si>
+    <t>第十九关</t>
+  </si>
+  <si>
+    <t>第二十关</t>
+  </si>
+  <si>
+    <t>第二十一关</t>
+  </si>
+  <si>
+    <t>第二十二关</t>
+  </si>
+  <si>
+    <t>第二十三关</t>
+  </si>
+  <si>
+    <t>第二十四关</t>
+  </si>
+  <si>
+    <t>第二十五关</t>
+  </si>
+  <si>
+    <t>第二十六关</t>
+  </si>
+  <si>
+    <t>第二十七关</t>
+  </si>
+  <si>
+    <t>第二十八关</t>
+  </si>
+  <si>
+    <t>第二十九关</t>
+  </si>
+  <si>
+    <t>第三十关</t>
+  </si>
+  <si>
     <t>#对战关卡</t>
   </si>
   <si>
@@ -133,10 +199,10 @@
     <t>5000,5000,5000,5000,5000,5000</t>
   </si>
   <si>
+    <t>1,100;2,100;3,100</t>
+  </si>
+  <si>
     <t>200,50</t>
-  </si>
-  <si>
-    <t>eee</t>
   </si>
 </sst>
 </file>
@@ -149,14 +215,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,10 +676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,33 +688,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -665,101 +727,98 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -772,10 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,18 +1182,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L30"/>
+  <dimension ref="B2:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="40.625" customWidth="1"/>
+    <col min="6" max="6" width="86.125" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="8" max="8" width="33.25" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="27.25" customWidth="1"/>
     <col min="11" max="11" width="21.125" customWidth="1"/>
@@ -1275,7 +1331,7 @@
       <c r="K7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1290,21 +1346,21 @@
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G8">
-        <v>500</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1319,7 +1375,7 @@
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G9">
         <v>500</v>
@@ -1328,12 +1384,12 @@
         <v>25</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1348,127 +1404,879 @@
         <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>500</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12">
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12">
+        <v>500</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12">
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12">
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12">
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16">
+        <v>500</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12">
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>500</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>500</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="C19">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19">
+        <v>500</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="C20">
+        <v>14</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20">
+        <v>500</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>500</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <v>500</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="C23">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <v>500</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <v>500</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>500</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>500</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="C27">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>500</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>500</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>500</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>500</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33">
+        <v>500</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34">
+        <v>500</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="C35">
         <v>29</v>
       </c>
-      <c r="G10">
-        <v>500</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35">
+        <v>500</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12">
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36">
+        <v>500</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38">
         <v>1001</v>
       </c>
-      <c r="D12">
+      <c r="D38">
         <v>1001</v>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12">
-        <v>500</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="6:7">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="6:7">
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="6:8">
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="6:7">
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="6:7">
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="6:7">
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="6:7">
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="6:7">
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="6:7">
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="6:7">
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="6:7">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="6:7">
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="6:7">
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="6:6">
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" s="1"/>
+      <c r="E38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38">
+        <v>500</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="6:7">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="6:7">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="6:8">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="6:7">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="6:7">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="6:7">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="6:7">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="6:7">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="6:7">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="6:7">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="6:7">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="6:7">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="6:7">
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="6:7">
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="6:7">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="6:7">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -199,7 +199,7 @@
     <t>5000,5000,5000,5000,5000,5000</t>
   </si>
   <si>
-    <t>1,100;2,100;3,100</t>
+    <t>1,100;1,200;3,300</t>
   </si>
   <si>
     <t>200,50</t>
@@ -1185,7 +1185,7 @@
   <dimension ref="B2:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
